--- a/cpsc416-assignment2/results.xlsx
+++ b/cpsc416-assignment2/results.xlsx
@@ -309,16 +309,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/cpsc416-assignment2/results.xlsx
+++ b/cpsc416-assignment2/results.xlsx
@@ -76,8 +76,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -88,13 +92,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -120,103 +128,55 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>60 Seconds</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.182863E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.219911E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.185146E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.195746E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.192077E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>30 Seconds</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.182863E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.219911E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.185146E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.195746E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.192077E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>60 Seconds</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -250,21 +210,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1982130968"/>
-        <c:axId val="1982132376"/>
+        <c:axId val="2133763096"/>
+        <c:axId val="2133779448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1982130968"/>
+        <c:axId val="2133763096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1982132376"/>
+        <c:crossAx val="2133779448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -272,7 +231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1982132376"/>
+        <c:axId val="2133779448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,7 +242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1982130968"/>
+        <c:crossAx val="2133763096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -294,7 +253,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -309,20 +268,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -665,13 +624,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -679,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -690,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="B2">
+        <v>1094802</v>
+      </c>
+      <c r="C2">
         <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1094802</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -701,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="B3">
+        <v>1109391</v>
+      </c>
+      <c r="C3">
         <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1109391</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -712,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="B4">
+        <v>1115445</v>
+      </c>
+      <c r="C4">
         <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1115445</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -723,10 +682,10 @@
         <v>15</v>
       </c>
       <c r="B5">
+        <v>1117992</v>
+      </c>
+      <c r="C5">
         <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1117992</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -734,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="B6">
+        <v>1113118</v>
+      </c>
+      <c r="C6">
         <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1113118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -745,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B7">
+        <v>2182863</v>
+      </c>
+      <c r="C7">
         <v>60</v>
-      </c>
-      <c r="C7">
-        <v>2182863</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -756,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="B8">
+        <v>2219911</v>
+      </c>
+      <c r="C8">
         <v>60</v>
-      </c>
-      <c r="C8">
-        <v>2219911</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -767,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>2185146</v>
+      </c>
+      <c r="C9">
         <v>60</v>
-      </c>
-      <c r="C9">
-        <v>2185146</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -778,10 +737,10 @@
         <v>15</v>
       </c>
       <c r="B10">
+        <v>2195746</v>
+      </c>
+      <c r="C10">
         <v>60</v>
-      </c>
-      <c r="C10">
-        <v>2195746</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -789,10 +748,10 @@
         <v>20</v>
       </c>
       <c r="B11">
+        <v>2192077</v>
+      </c>
+      <c r="C11">
         <v>60</v>
-      </c>
-      <c r="C11">
-        <v>2192077</v>
       </c>
     </row>
   </sheetData>

--- a/cpsc416-assignment2/results.xlsx
+++ b/cpsc416-assignment2/results.xlsx
@@ -268,10 +268,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
